--- a/src/PatioBlox.DataExport/Templates/Template_1up.xlsx
+++ b/src/PatioBlox.DataExport/Templates/Template_1up.xlsx
@@ -17,8 +17,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gary Armstrong</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gary Armstrong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ApprovalStatus can be:
+Pending,
+Approved,
+Rejected</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -115,6 +152,12 @@
   </si>
   <si>
     <t>&lt;#Blox.Image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Blox.ApprovalStatusString&gt;</t>
+  </si>
+  <si>
+    <t>ApprovalStatus</t>
   </si>
 </sst>
 </file>
@@ -124,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +192,19 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -569,11 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,9 +642,10 @@
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -613,8 +670,11 @@
       <c r="H1" t="s">
         <v>22</v>
       </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -638,10 +698,14 @@
       </c>
       <c r="H2" t="s">
         <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/PatioBlox.DataExport/Templates/Template_1up.xlsx
+++ b/src/PatioBlox.DataExport/Templates/Template_1up.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="11520" windowWidth="18825" windowHeight="8100"/>
+    <workbookView xWindow="345" yWindow="735" windowWidth="18825" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="&lt;#Config&gt;" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__Blox__">Sheet1!$A$2:$H$2</definedName>
+    <definedName name="__Items__">Sheet1!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -130,34 +130,34 @@
     <t>PalletQty</t>
   </si>
   <si>
-    <t>&lt;#Blox.ItemNumber&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.Description&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.Name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.Size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.Color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.PalletQuantity&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.Barcode&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.Image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.ApprovalStatusString&gt;</t>
-  </si>
-  <si>
     <t>ApprovalStatus</t>
+  </si>
+  <si>
+    <t>&lt;#Items.ItemNumber&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.Description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.Size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.Color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.PalletQuantity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.Barcode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.Image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.ApprovalStatusString&gt;</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,36 +671,36 @@
         <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
